--- a/assets/excel/ea_report_4_minggu.xlsx
+++ b/assets/excel/ea_report_4_minggu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\faster-ea\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92485DEA-B92E-493B-B767-358C0BEDB076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CE81B2-1372-4798-94C5-A7D8EC0C24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1810,6 +1810,13 @@
     <xf numFmtId="3" fontId="32" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1866,13 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2394,23 +2394,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
       <c r="N1" s="1"/>
       <c r="O1" s="122"/>
       <c r="P1" s="122"/>
@@ -2442,21 +2442,21 @@
       <c r="AP1" s="122"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
       <c r="N2" s="3"/>
       <c r="O2" s="122"/>
       <c r="P2" s="122"/>
@@ -2488,8 +2488,8 @@
       <c r="AP2" s="122"/>
     </row>
     <row r="3" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="165" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="123"/>
@@ -2534,8 +2534,8 @@
       <c r="AP3" s="122"/>
     </row>
     <row r="4" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
       <c r="E4" s="126"/>
@@ -2581,23 +2581,23 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="164" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="164"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
       <c r="K5" s="115" t="s">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="M7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="153"/>
+      <c r="N7" s="155"/>
       <c r="O7" s="129"/>
       <c r="P7" s="129"/>
       <c r="Q7" s="129"/>
@@ -2767,7 +2767,7 @@
       <c r="K8" s="56"/>
       <c r="L8" s="39"/>
       <c r="M8" s="105"/>
-      <c r="N8" s="154"/>
+      <c r="N8" s="156"/>
       <c r="O8" s="122"/>
       <c r="P8" s="122"/>
       <c r="Q8" s="122"/>
@@ -3695,21 +3695,21 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="158"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
       <c r="J36" s="85"/>
-      <c r="K36" s="161" t="s">
+      <c r="K36" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="162"/>
-      <c r="M36" s="163"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="165"/>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3737,10 +3737,10 @@
         <v>79</v>
       </c>
       <c r="J37" s="86"/>
-      <c r="K37" s="150" t="s">
+      <c r="K37" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="151"/>
+      <c r="L37" s="153"/>
       <c r="M37" s="21" t="s">
         <v>81</v>
       </c>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3922,44 +3922,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="159" t="s">
+      <c r="A1" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="122"/>
       <c r="AK1" s="122"/>
@@ -3991,42 +3991,42 @@
       <c r="BK1" s="122"/>
     </row>
     <row r="2" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="160" t="s">
+      <c r="A2" s="154"/>
+      <c r="B2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="122"/>
       <c r="AK2" s="122"/>
@@ -4058,8 +4058,8 @@
       <c r="BK2" s="122"/>
     </row>
     <row r="3" spans="1:63" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="165" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="123"/>
@@ -4125,8 +4125,8 @@
       <c r="BK3" s="122"/>
     </row>
     <row r="4" spans="1:63" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="165"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
       <c r="E4" s="126"/>
@@ -4193,45 +4193,45 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="164" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="164"/>
+      <c r="AA5" s="166"/>
       <c r="AB5" s="119">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>44718.683559375</v>
-      </c>
-      <c r="AC5" s="164" t="s">
+        <v>44719.76902939815</v>
+      </c>
+      <c r="AC5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
       <c r="AF5" s="115" t="s">
         <v>85</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="AH7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="153"/>
+      <c r="AI7" s="155"/>
       <c r="AJ7" s="129"/>
       <c r="AK7" s="129"/>
       <c r="AL7" s="129"/>
@@ -4498,7 +4498,7 @@
       <c r="AF8" s="56"/>
       <c r="AG8" s="39"/>
       <c r="AH8" s="105"/>
-      <c r="AI8" s="154"/>
+      <c r="AI8" s="156"/>
       <c r="AJ8" s="122"/>
       <c r="AK8" s="122"/>
       <c r="AL8" s="122"/>
@@ -5654,7 +5654,7 @@
       <c r="AC29" s="65"/>
       <c r="AD29" s="65"/>
       <c r="AE29" s="66">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="67"/>
@@ -5932,8 +5932,8 @@
         <v>70</v>
       </c>
       <c r="J34" s="77"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="167"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="151"/>
       <c r="M34" s="80"/>
       <c r="N34" s="131"/>
       <c r="O34" s="131"/>
@@ -6000,15 +6000,15 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="158"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
       <c r="J36" s="168"/>
       <c r="K36" s="169"/>
       <c r="L36" s="169"/>
@@ -6031,11 +6031,11 @@
       <c r="AC36" s="169"/>
       <c r="AD36" s="169"/>
       <c r="AE36" s="85"/>
-      <c r="AF36" s="161" t="s">
+      <c r="AF36" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="AG36" s="162"/>
-      <c r="AH36" s="163"/>
+      <c r="AG36" s="164"/>
+      <c r="AH36" s="165"/>
       <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="1:35" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6084,10 +6084,10 @@
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37" s="86"/>
-      <c r="AF37" s="150" t="s">
+      <c r="AF37" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="AG37" s="151"/>
+      <c r="AG37" s="153"/>
       <c r="AH37" s="21" t="s">
         <v>81</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="121"/>
       <c r="D38" s="133">
-        <f>AE15+AE16+AE17+AE18+AE23+AE27+AE28+AE19</f>
+        <f>AE15+AE16+AE17+AE18+AE23+AE27+AE28+AE19+AE24+AE25+AE26+AE29</f>
         <v>0</v>
       </c>
       <c r="E38" s="88"/>
@@ -6181,10 +6181,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="90"/>
-      <c r="D40" s="137">
-        <f>AE19+AE24+AE25+AE30+AE31</f>
-        <v>0</v>
-      </c>
+      <c r="D40" s="137"/>
       <c r="E40" s="93"/>
       <c r="F40" s="138"/>
       <c r="G40" s="137"/>

--- a/assets/excel/ea_report_4_minggu.xlsx
+++ b/assets/excel/ea_report_4_minggu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\faster-ea\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CE81B2-1372-4798-94C5-A7D8EC0C24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB3C66-0DA7-4E0D-974E-B1F0835B36B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
   <si>
     <t>Letters correspond to Expense Report Instructions Worksheet</t>
   </si>
@@ -538,9 +538,6 @@
       </rPr>
       <t>(Hotel to Home)</t>
     </r>
-  </si>
-  <si>
-    <t>12970357</t>
   </si>
   <si>
     <t>Name: "Requestor"</t>
@@ -1381,7 +1378,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1807,9 +1804,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="13" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="32" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="35" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1876,6 +1870,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Koma" xfId="2" builtinId="3"/>
@@ -2394,23 +2394,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="161" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
       <c r="N1" s="1"/>
       <c r="O1" s="122"/>
       <c r="P1" s="122"/>
@@ -2442,21 +2442,21 @@
       <c r="AP1" s="122"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154"/>
-      <c r="B2" s="162" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="3"/>
       <c r="O2" s="122"/>
       <c r="P2" s="122"/>
@@ -2488,8 +2488,8 @@
       <c r="AP2" s="122"/>
     </row>
     <row r="3" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154"/>
-      <c r="B3" s="167" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="123"/>
@@ -2534,8 +2534,8 @@
       <c r="AP3" s="122"/>
     </row>
     <row r="4" spans="1:42" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="167"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
       <c r="E4" s="126"/>
@@ -2581,23 +2581,23 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="166" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="166"/>
+      <c r="F5" s="165"/>
       <c r="G5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="166" t="s">
+      <c r="H5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
       <c r="K5" s="115" t="s">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="M7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="155"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="129"/>
       <c r="P7" s="129"/>
       <c r="Q7" s="129"/>
@@ -2767,7 +2767,7 @@
       <c r="K8" s="56"/>
       <c r="L8" s="39"/>
       <c r="M8" s="105"/>
-      <c r="N8" s="156"/>
+      <c r="N8" s="155"/>
       <c r="O8" s="122"/>
       <c r="P8" s="122"/>
       <c r="Q8" s="122"/>
@@ -3695,21 +3695,21 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="158" t="s">
+      <c r="C36" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="159"/>
       <c r="J36" s="85"/>
-      <c r="K36" s="163" t="s">
+      <c r="K36" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="164"/>
-      <c r="M36" s="165"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="164"/>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3737,10 +3737,10 @@
         <v>79</v>
       </c>
       <c r="J37" s="86"/>
-      <c r="K37" s="152" t="s">
+      <c r="K37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="153"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="21" t="s">
         <v>81</v>
       </c>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3922,44 +3922,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="161" t="s">
+      <c r="A1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="122"/>
       <c r="AK1" s="122"/>
@@ -3991,42 +3991,42 @@
       <c r="BK1" s="122"/>
     </row>
     <row r="2" spans="1:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154"/>
-      <c r="B2" s="162" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="161"/>
+      <c r="AD2" s="161"/>
+      <c r="AE2" s="161"/>
+      <c r="AF2" s="161"/>
+      <c r="AG2" s="161"/>
+      <c r="AH2" s="161"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="122"/>
       <c r="AK2" s="122"/>
@@ -4058,8 +4058,8 @@
       <c r="BK2" s="122"/>
     </row>
     <row r="3" spans="1:63" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154"/>
-      <c r="B3" s="167" t="s">
+      <c r="A3" s="153"/>
+      <c r="B3" s="166" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="123"/>
@@ -4125,8 +4125,8 @@
       <c r="BK3" s="122"/>
     </row>
     <row r="4" spans="1:63" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
-      <c r="B4" s="167"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
       <c r="E4" s="126"/>
@@ -4193,45 +4193,45 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="157"/>
-      <c r="R5" s="157"/>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="166" t="s">
+      <c r="B5" s="156" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="166"/>
+      <c r="AA5" s="165"/>
       <c r="AB5" s="119">
         <f ca="1" xml:space="preserve"> NOW()</f>
-        <v>44719.76902939815</v>
-      </c>
-      <c r="AC5" s="166" t="s">
+        <v>44720.097512962966</v>
+      </c>
+      <c r="AC5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
       <c r="AF5" s="115" t="s">
         <v>85</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="AH7" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="155"/>
+      <c r="AI7" s="154"/>
       <c r="AJ7" s="129"/>
       <c r="AK7" s="129"/>
       <c r="AL7" s="129"/>
@@ -4498,7 +4498,7 @@
       <c r="AF8" s="56"/>
       <c r="AG8" s="39"/>
       <c r="AH8" s="105"/>
-      <c r="AI8" s="156"/>
+      <c r="AI8" s="155"/>
       <c r="AJ8" s="122"/>
       <c r="AK8" s="122"/>
       <c r="AL8" s="122"/>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="148"/>
-      <c r="AG20" s="149"/>
+      <c r="AG20" s="169"/>
       <c r="AH20" s="22"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="130"/>
@@ -5568,9 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="67"/>
-      <c r="AG27" s="120">
-        <v>12970356</v>
-      </c>
+      <c r="AG27" s="120"/>
       <c r="AH27" s="22"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="122"/>
@@ -5932,8 +5930,8 @@
         <v>70</v>
       </c>
       <c r="J34" s="77"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="151"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="150"/>
       <c r="M34" s="80"/>
       <c r="N34" s="131"/>
       <c r="O34" s="131"/>
@@ -6000,42 +5998,42 @@
       <c r="B36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="158" t="s">
+      <c r="C36" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="169"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="169"/>
-      <c r="S36" s="169"/>
-      <c r="T36" s="169"/>
-      <c r="U36" s="169"/>
-      <c r="V36" s="169"/>
-      <c r="W36" s="169"/>
-      <c r="X36" s="168"/>
-      <c r="Y36" s="169"/>
-      <c r="Z36" s="169"/>
-      <c r="AA36" s="169"/>
-      <c r="AB36" s="169"/>
-      <c r="AC36" s="169"/>
-      <c r="AD36" s="169"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="168"/>
+      <c r="N36" s="168"/>
+      <c r="O36" s="168"/>
+      <c r="P36" s="168"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="168"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="168"/>
+      <c r="V36" s="168"/>
+      <c r="W36" s="168"/>
+      <c r="X36" s="167"/>
+      <c r="Y36" s="168"/>
+      <c r="Z36" s="168"/>
+      <c r="AA36" s="168"/>
+      <c r="AB36" s="168"/>
+      <c r="AC36" s="168"/>
+      <c r="AD36" s="168"/>
       <c r="AE36" s="85"/>
-      <c r="AF36" s="163" t="s">
+      <c r="AF36" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="AG36" s="164"/>
-      <c r="AH36" s="165"/>
+      <c r="AG36" s="163"/>
+      <c r="AH36" s="164"/>
       <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="1:35" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6084,10 +6082,10 @@
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37" s="86"/>
-      <c r="AF37" s="152" t="s">
+      <c r="AF37" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="AG37" s="153"/>
+      <c r="AG37" s="152"/>
       <c r="AH37" s="21" t="s">
         <v>81</v>
       </c>
@@ -6136,9 +6134,7 @@
     <row r="39" spans="1:35" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="127"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="121" t="s">
-        <v>87</v>
-      </c>
+      <c r="C39" s="170"/>
       <c r="D39" s="137">
         <f>AE20+AE21</f>
         <v>0</v>
